--- a/Hardware/FabQuotes/JLCGen3/Sample-BOM_JLCSMT.xlsx
+++ b/Hardware/FabQuotes/JLCGen3/Sample-BOM_JLCSMT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rohankarunaratne/Documents/GitHub/Small_VineRobot_Electronics/Hardware/FabQuotes/JLCGen3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF381CE-07CA-2445-B4D8-BB66149FE1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B133E2-41BB-2C4E-A1E5-D8F8EE494D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4120" yWindow="-26780" windowWidth="19500" windowHeight="20240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2260" yWindow="-21100" windowWidth="19500" windowHeight="20240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="157">
   <si>
     <t>Comment</t>
   </si>
@@ -96,9 +96,6 @@
     <t>U.FL-R-SMT-1</t>
   </si>
   <si>
-    <t>CUI_UJ31-CH-G2-SMT-TR</t>
-  </si>
-  <si>
     <t>R_0402_1005Metric</t>
   </si>
   <si>
@@ -183,9 +180,6 @@
     <t>ANT1</t>
   </si>
   <si>
-    <t>J42</t>
-  </si>
-  <si>
     <t>R21,R26</t>
   </si>
   <si>
@@ -318,9 +312,6 @@
     <t>22pF</t>
   </si>
   <si>
-    <t>UJ31-CH-G2-SMT-TR</t>
-  </si>
-  <si>
     <t>5.1K</t>
   </si>
   <si>
@@ -438,9 +429,6 @@
     <t>C9900006828</t>
   </si>
   <si>
-    <t>C5154024</t>
-  </si>
-  <si>
     <t>C25905</t>
   </si>
   <si>
@@ -544,6 +532,12 @@
   </si>
   <si>
     <t>C79382</t>
+  </si>
+  <si>
+    <t>C134092</t>
+  </si>
+  <si>
+    <t>J5</t>
   </si>
 </sst>
 </file>
@@ -982,7 +976,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1009,87 +1003,87 @@
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="4">
         <v>61300611121</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1">
@@ -1097,66 +1091,66 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>83</v>
+      <c r="A9" s="4">
+        <v>1054500101</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>156</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1054500101</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="4"/>
     </row>
@@ -1165,94 +1159,94 @@
         <v>0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="4"/>
     </row>
@@ -1261,27 +1255,27 @@
         <v>530470210</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -1289,375 +1283,375 @@
         <v>499</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20" customHeight="1">
